--- a/pyexsimo/model/liver_glucose_annotations.xlsx
+++ b/pyexsimo/model/liver_glucose_annotations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="652">
   <si>
     <t xml:space="preserve">pattern</t>
   </si>
@@ -1354,6 +1354,9 @@
     <t xml:space="preserve">ADP</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/XTWYTFMLZFPYCI-KQYNXXCUSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10H12N5O10P2</t>
   </si>
   <si>
@@ -1372,6 +1375,9 @@
     <t xml:space="preserve">AMP</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/UDMBCSSLTHHNCD-KQYNXXCUSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10H12N5O7P</t>
   </si>
   <si>
@@ -1390,6 +1396,9 @@
     <t xml:space="preserve">UTP</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/PGAVKCOVUIYSFO-XVFCMESISA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C9H11N2O15P3</t>
   </si>
   <si>
@@ -1408,6 +1417,9 @@
     <t xml:space="preserve">UDP</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/XCCTYIAWTASOJW-XVFCMESISA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">C9H11N2O12P2</t>
   </si>
   <si>
@@ -1423,6 +1435,9 @@
     <t xml:space="preserve">GTP(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/XKMLYUALXHKNFT-UUOKFMHZSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10H12N5O14P3</t>
   </si>
   <si>
@@ -1438,6 +1453,9 @@
     <t xml:space="preserve">GDP(3−)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/QGWNDRXFNXRZMB-UUOKFMHZSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10H12N5O11P2</t>
   </si>
   <si>
@@ -1456,6 +1474,9 @@
     <t xml:space="preserve">NAD(1-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/BAWFJGJZGIEFAR-NNYOXOHSSA-M</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21H26N7O14P2</t>
   </si>
   <si>
@@ -1474,6 +1495,9 @@
     <t xml:space="preserve">NADH(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/BOPGDPNILDQYTO-NNYOXOHSSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21H27N7O14P2</t>
   </si>
   <si>
@@ -1495,6 +1519,9 @@
     <t xml:space="preserve">Phosphate</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/NBIIXXVUZAFLBC-UHFFFAOYSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">HO4P</t>
   </si>
   <si>
@@ -1513,6 +1540,9 @@
     <t xml:space="preserve">Diphosphate</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/XPPKVPWEQAFLFU-UHFFFAOYSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">HO7P2</t>
   </si>
   <si>
@@ -1531,6 +1561,9 @@
     <t xml:space="preserve">CO2</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/CURLTUGMZLYLDI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">^h[_]*\w*$</t>
   </si>
   <si>
@@ -1546,6 +1579,9 @@
     <t xml:space="preserve">H+</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/GPRLSGONYQIRFK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
@@ -1567,6 +1603,9 @@
     <t xml:space="preserve">Hydrogen</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/UFHFLCQGNIYNRP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
@@ -1585,6 +1624,9 @@
     <t xml:space="preserve">H2O</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/XLYOFNOQVPJJNP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t xml:space="preserve">^glc1p[_]*\w*$</t>
   </si>
   <si>
@@ -1600,6 +1642,9 @@
     <t xml:space="preserve">alpha-D-glucose 1-phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/HXXFSFRBOHSIMQ-VFUOTHLCSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6H11O9P</t>
   </si>
   <si>
@@ -1618,6 +1663,9 @@
     <t xml:space="preserve">UDP-alpha-D-glucose(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/HSCJRCZFDFQWRP-JZMIEXBBSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15H22N2O17P2</t>
   </si>
   <si>
@@ -1645,6 +1693,15 @@
     <t xml:space="preserve">D-glucopyranose 6-phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">chebi/CHEBI:14314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inchikey/NBSCHQHZLSJFNQ-GASJEMHNSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">^fru6p[_]*\w*$</t>
   </si>
   <si>
@@ -1657,6 +1714,15 @@
     <t xml:space="preserve">D-fructose 6-phosphate(2−)</t>
   </si>
   <si>
+    <t xml:space="preserve">chebi/CHEBI:78697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inchikey/GSXOAOHZAIYLCY-HSUXUTPPSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">^fru16bp[_]*\w*$</t>
   </si>
   <si>
@@ -1669,6 +1735,9 @@
     <t xml:space="preserve">D-fructofuranose 1,6-bisphosphate(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/RNBGYGVWRKECFJ-VRPWFDPXSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6H10O12P2</t>
   </si>
   <si>
@@ -1684,6 +1753,9 @@
     <t xml:space="preserve">β-D-fructofuranose 2,6-bisphosphate(4−)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/YXWOAJXNVLXPMU-ZXXMMSQZSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">^grap[_]*\w*$</t>
   </si>
   <si>
@@ -1696,6 +1768,9 @@
     <t xml:space="preserve">D-glyceraldehyde 3-phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/LXJXRIRHZLFYRP-VKHMYHEASA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3H5O6P</t>
   </si>
   <si>
@@ -1711,6 +1786,9 @@
     <t xml:space="preserve">glycerone phosphate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/GNGACRATGGDKBX-UHFFFAOYSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">^bpg13[_]*\w*$</t>
   </si>
   <si>
@@ -1723,6 +1801,9 @@
     <t xml:space="preserve">3-phosphonato-D-glyceroyl phosphate(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/LJQLQCAXBUHEAZ-UWTATZPHSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3H4O10P2</t>
   </si>
   <si>
@@ -1738,6 +1819,9 @@
     <t xml:space="preserve">3-phosphonato-D-glycerate(3-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/OSJPPGNTCRNQQC-UWTATZPHSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3H4O7P</t>
   </si>
   <si>
@@ -1753,6 +1837,9 @@
     <t xml:space="preserve">2-phosphonato-D-glycerate(3-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/GXIURPTVHJPJLF-UWTATZPHSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">^pep[_]*\w*$</t>
   </si>
   <si>
@@ -1765,6 +1852,9 @@
     <t xml:space="preserve">phosphonatoenolpyruvate</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/DTBNBXWJWCWCIK-UHFFFAOYSA-K</t>
+  </si>
+  <si>
     <t xml:space="preserve">^pyr[_]*\w*$</t>
   </si>
   <si>
@@ -1777,6 +1867,9 @@
     <t xml:space="preserve">pyruvate</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/LCTONWCANYUPML-UHFFFAOYSA-M</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3H2O6P</t>
   </si>
   <si>
@@ -1792,6 +1885,9 @@
     <t xml:space="preserve">oxaloacetate(2-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/KHPXUQMNIQBQEV-UHFFFAOYSA-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3H3O3</t>
   </si>
   <si>
@@ -1807,6 +1903,9 @@
     <t xml:space="preserve">(S)-lactate</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/JVTAAEKCZFNVCJ-REOHCLBHSA-M</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4H2O5</t>
   </si>
   <si>
@@ -1822,6 +1921,9 @@
     <t xml:space="preserve">coenzyme A(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/RGJOEKWQDUBAIZ-IBOSZNHHSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21H32N7O16P3S</t>
   </si>
   <si>
@@ -1837,6 +1939,9 @@
     <t xml:space="preserve">acetyl-CoA(4-)</t>
   </si>
   <si>
+    <t xml:space="preserve">inchikey/ZSLZBFCDCINBPY-ZSJPKINUSA-J</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23H34N7O17P3S</t>
   </si>
   <si>
@@ -1850,6 +1955,9 @@
   </si>
   <si>
     <t xml:space="preserve">citrate(3-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inchikey/KRKNYBCHXYNGOX-UHFFFAOYSA-K</t>
   </si>
   <si>
     <t xml:space="preserve">C6H5O7</t>
@@ -2129,10 +2237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH531"/>
+  <dimension ref="A1:AMH564"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F313" activeCellId="0" sqref="F313"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A527" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B532" activeCellId="0" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10953,7 +11061,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>419</v>
@@ -11082,7 +11190,9 @@
       <c r="D334" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E334" s="6"/>
+      <c r="E334" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="F334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,7 +11207,7 @@
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F335" s="9"/>
     </row>
@@ -11127,7 +11237,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>419</v>
@@ -11147,7 +11257,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>419</v>
@@ -11159,15 +11269,15 @@
         <v>17</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F339" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>419</v>
@@ -11179,95 +11289,93 @@
         <v>25</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F340" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C341" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F341" s="9"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D341" s="6"/>
-      <c r="E341" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F341" s="9"/>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C342" s="6" t="s">
+      <c r="D342" s="6"/>
+      <c r="E342" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F342" s="9"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C343" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6" t="n">
+      <c r="D343" s="6"/>
+      <c r="E343" s="6" t="n">
         <v>-2</v>
       </c>
-      <c r="F342" s="9"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="9"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
       <c r="F343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E344" s="6" t="s">
+      <c r="A344" s="9"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E345" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F344" s="8" t="s">
+      <c r="F345" s="8" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E345" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F345" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>419</v>
@@ -11276,7 +11384,7 @@
         <v>8</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E346" s="6" t="s">
         <v>454</v>
@@ -11287,245 +11395,261 @@
     </row>
     <row r="347" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D347" s="6"/>
-      <c r="E347" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E347" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="F347" s="9"/>
+      <c r="F347" s="7" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D348" s="6"/>
-      <c r="E348" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F348" s="9"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="8"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
-      <c r="E349" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F348" s="7"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D349" s="6"/>
+      <c r="E349" s="15" t="s">
+        <v>459</v>
+      </c>
       <c r="F349" s="9"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E350" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D350" s="6"/>
+      <c r="E350" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F350" s="9"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="8"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="9"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E352" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F350" s="8" t="s">
+      <c r="F352" s="8" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="F351" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F352" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D353" s="6"/>
-      <c r="E353" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F353" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F353" s="9"/>
     </row>
     <row r="354" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C354" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F355" s="7"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D356" s="6"/>
+      <c r="E356" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="F356" s="9"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D354" s="6"/>
-      <c r="E354" s="15" t="n">
+      <c r="D357" s="6"/>
+      <c r="E357" s="15" t="n">
         <v>-3</v>
       </c>
-      <c r="F354" s="9"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="9"/>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9"/>
-      <c r="D355" s="9"/>
-      <c r="E355" s="9"/>
-      <c r="F355" s="9"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E356" s="6" t="s">
+      <c r="F357" s="9"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="9"/>
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
+      <c r="D358" s="9"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="9"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E359" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F356" s="8" t="s">
+      <c r="F359" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D357" s="6" t="s">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E357" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="F357" s="9"/>
-    </row>
-    <row r="358" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F358" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D359" s="6"/>
-      <c r="E359" s="15" t="s">
+      <c r="E360" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F360" s="9"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F359" s="9"/>
-    </row>
-    <row r="360" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D360" s="6"/>
-      <c r="E360" s="15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F360" s="9"/>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="9"/>
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="9"/>
+      <c r="B361" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F361" s="10" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>419</v>
@@ -11537,93 +11661,91 @@
         <v>17</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F362" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+      <c r="F362" s="10"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>469</v>
+        <v>427</v>
+      </c>
+      <c r="D363" s="6"/>
+      <c r="E363" s="15" t="s">
+        <v>472</v>
       </c>
       <c r="F363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F364" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D365" s="6"/>
-      <c r="E365" s="15" t="s">
-        <v>472</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D364" s="6"/>
+      <c r="E364" s="15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F364" s="9"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="9"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="9"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="9"/>
       <c r="F365" s="9"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="8" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D366" s="6"/>
-      <c r="E366" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="F366" s="9"/>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9"/>
-      <c r="B367" s="9"/>
-      <c r="C367" s="9"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
+      <c r="B367" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E367" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="F367" s="9"/>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>419</v>
@@ -11635,15 +11757,15 @@
         <v>17</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F368" s="8" t="s">
-        <v>421</v>
+        <v>475</v>
+      </c>
+      <c r="F368" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>419</v>
@@ -11652,72 +11774,72 @@
         <v>8</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F369" s="9"/>
+        <v>477</v>
+      </c>
+      <c r="F369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D370" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E370" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F370" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+      <c r="D370" s="6"/>
+      <c r="E370" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="F370" s="9"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D371" s="6"/>
-      <c r="E371" s="7" t="s">
-        <v>478</v>
+      <c r="E371" s="14" t="s">
+        <v>479</v>
       </c>
       <c r="F371" s="9"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B372" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D372" s="6"/>
-      <c r="E372" s="14" t="s">
-        <v>479</v>
-      </c>
+      <c r="A372" s="9"/>
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
       <c r="F372" s="9"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9"/>
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
-      <c r="D373" s="9"/>
-      <c r="E373" s="9"/>
-      <c r="F373" s="9"/>
+      <c r="A373" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
@@ -11730,16 +11852,14 @@
         <v>8</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F374" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>481</v>
+      </c>
+      <c r="F374" s="9"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="8" t="s">
         <v>480</v>
       </c>
@@ -11750,14 +11870,16 @@
         <v>8</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="F375" s="9"/>
-    </row>
-    <row r="376" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+      <c r="F375" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="8" t="s">
         <v>480</v>
       </c>
@@ -11771,11 +11893,9 @@
         <v>17</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F376" s="10" t="s">
-        <v>483</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="F376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="8" t="s">
@@ -11789,7 +11909,7 @@
       </c>
       <c r="D377" s="6"/>
       <c r="E377" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F377" s="9"/>
     </row>
@@ -11805,7 +11925,7 @@
       </c>
       <c r="D378" s="6"/>
       <c r="E378" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F378" s="9"/>
     </row>
@@ -11819,7 +11939,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>419</v>
@@ -11837,9 +11957,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>419</v>
@@ -11848,18 +11968,16 @@
         <v>8</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F381" s="7" t="s">
         <v>488</v>
       </c>
+      <c r="F381" s="9"/>
     </row>
     <row r="382" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>419</v>
@@ -11868,78 +11986,76 @@
         <v>8</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E382" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="F382" s="7" t="s">
+      <c r="F382" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C383" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E383" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F383" s="10"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C384" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D383" s="6"/>
-      <c r="E383" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="F383" s="9"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C384" s="6" t="s">
+      <c r="D384" s="6"/>
+      <c r="E384" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F384" s="9"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D384" s="6"/>
-      <c r="E384" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F384" s="9"/>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="9"/>
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
-      <c r="D385" s="9"/>
-      <c r="E385" s="9"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="F385" s="9"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D386" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E386" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F386" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="A386" s="9"/>
+      <c r="B386" s="9"/>
+      <c r="C386" s="9"/>
+      <c r="D386" s="9"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="9"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>419</v>
@@ -11951,16 +12067,16 @@
         <v>17</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F387" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="8" t="s">
-        <v>492</v>
-      </c>
       <c r="B388" s="6" t="s">
         <v>419</v>
       </c>
@@ -11968,7 +12084,7 @@
         <v>8</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E388" s="6" t="s">
         <v>495</v>
@@ -11979,87 +12095,85 @@
     </row>
     <row r="389" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C389" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F390" s="7"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C391" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D389" s="6"/>
-      <c r="E389" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F389" s="9"/>
-    </row>
-    <row r="390" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C390" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D390" s="6"/>
-      <c r="E390" s="15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F390" s="9"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="9"/>
-      <c r="B391" s="9"/>
-      <c r="C391" s="9"/>
-      <c r="D391" s="9"/>
-      <c r="E391" s="9"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="15" t="s">
+        <v>500</v>
+      </c>
       <c r="F391" s="9"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F392" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D392" s="6"/>
+      <c r="E392" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F392" s="9"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E393" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="F393" s="7" t="s">
-        <v>500</v>
-      </c>
+      <c r="A393" s="9"/>
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="9"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>419</v>
@@ -12071,155 +12185,173 @@
         <v>17</v>
       </c>
       <c r="E394" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F394" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F394" s="7" t="s">
+      <c r="B395" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E395" s="6" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D395" s="6"/>
-      <c r="E395" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="F395" s="9"/>
+      <c r="F395" s="7" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C396" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E396" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F396" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F397" s="7"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D398" s="6"/>
+      <c r="E398" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F398" s="9"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C399" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D396" s="6"/>
-      <c r="E396" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F396" s="9"/>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="9"/>
-      <c r="B397" s="9"/>
-      <c r="C397" s="9"/>
-      <c r="D397" s="9"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="9"/>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C398" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E398" s="6" t="s">
+      <c r="D399" s="6"/>
+      <c r="E399" s="15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F399" s="9"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="9"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E401" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F398" s="8" t="s">
+      <c r="F401" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D399" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E399" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="F399" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B400" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E400" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="F400" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D401" s="6"/>
-      <c r="E401" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="F401" s="9"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="8" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D402" s="6"/>
-      <c r="E402" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E402" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="F402" s="9"/>
+      <c r="F402" s="7" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="8"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
-      <c r="D403" s="6"/>
-      <c r="E403" s="6"/>
-      <c r="F403" s="9"/>
+      <c r="A403" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>419</v>
@@ -12231,95 +12363,93 @@
         <v>17</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F404" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+      <c r="F404" s="7"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E405" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="F405" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D405" s="6"/>
+      <c r="E405" s="15" t="s">
         <v>512</v>
       </c>
+      <c r="F405" s="9"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F406" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D407" s="6"/>
-      <c r="E407" s="15" t="s">
-        <v>515</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D406" s="6"/>
+      <c r="E406" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F406" s="9"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="9"/>
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="9"/>
       <c r="F407" s="9"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B408" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D408" s="6"/>
-      <c r="E408" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F408" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F408" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="8"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="6"/>
-      <c r="F409" s="9"/>
+      <c r="A409" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>419</v>
@@ -12331,15 +12461,15 @@
         <v>17</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F410" s="8" t="s">
-        <v>421</v>
+        <v>517</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>419</v>
@@ -12351,75 +12481,73 @@
         <v>17</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F411" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+      <c r="F411" s="7"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E412" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F412" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D412" s="6"/>
+      <c r="E412" s="15" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F412" s="9"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D413" s="6"/>
-      <c r="E413" s="15" t="s">
-        <v>520</v>
+      <c r="E413" s="14" t="s">
+        <v>521</v>
       </c>
       <c r="F413" s="9"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C414" s="6" t="s">
-        <v>429</v>
-      </c>
+      <c r="A414" s="8"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="6"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="14" t="s">
-        <v>430</v>
-      </c>
+      <c r="E414" s="6"/>
       <c r="F414" s="9"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="9"/>
-      <c r="B415" s="9"/>
-      <c r="C415" s="9"/>
-      <c r="D415" s="9"/>
-      <c r="E415" s="9"/>
-      <c r="F415" s="9"/>
+      <c r="A415" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F415" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>419</v>
@@ -12431,15 +12559,15 @@
         <v>17</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F416" s="8" t="s">
-        <v>421</v>
+        <v>523</v>
+      </c>
+      <c r="F416" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>419</v>
@@ -12451,15 +12579,15 @@
         <v>17</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>419</v>
@@ -12471,15 +12599,13 @@
         <v>17</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="F418" s="7" t="s">
-        <v>525</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="F418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>419</v>
@@ -12487,15 +12613,15 @@
       <c r="C419" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D419" s="9"/>
-      <c r="E419" s="16" t="s">
-        <v>526</v>
+      <c r="D419" s="6"/>
+      <c r="E419" s="15" t="s">
+        <v>528</v>
       </c>
       <c r="F419" s="9"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>419</v>
@@ -12505,21 +12631,21 @@
       </c>
       <c r="D420" s="6"/>
       <c r="E420" s="14" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="F420" s="9"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="9"/>
-      <c r="B421" s="9"/>
-      <c r="C421" s="9"/>
-      <c r="D421" s="9"/>
-      <c r="E421" s="9"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="6"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
       <c r="F421" s="9"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>419</v>
@@ -12539,7 +12665,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>419</v>
@@ -12548,18 +12674,18 @@
         <v>8</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>419</v>
@@ -12571,75 +12697,73 @@
         <v>17</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F424" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C425" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E425" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F425" s="7"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C426" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D425" s="6"/>
-      <c r="E425" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="F425" s="9"/>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C426" s="6" t="s">
+      <c r="D426" s="6"/>
+      <c r="E426" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F426" s="9"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C427" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D426" s="6"/>
-      <c r="E426" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F426" s="9"/>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="9"/>
-      <c r="B427" s="9"/>
-      <c r="C427" s="9"/>
-      <c r="D427" s="9"/>
-      <c r="E427" s="9"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="F427" s="9"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C428" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D428" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E428" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F428" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="A428" s="9"/>
+      <c r="B428" s="9"/>
+      <c r="C428" s="9"/>
+      <c r="D428" s="9"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="9"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>419</v>
@@ -12648,16 +12772,18 @@
         <v>8</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F429" s="9"/>
+        <v>420</v>
+      </c>
+      <c r="F429" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>419</v>
@@ -12666,352 +12792,370 @@
         <v>8</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="F430" s="9"/>
+        <v>536</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D431" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E431" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F431" s="9"/>
+        <v>538</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D432" s="6"/>
-      <c r="E432" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F432" s="9"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="9"/>
-      <c r="B433" s="9"/>
-      <c r="C433" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E432" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F432" s="7"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="D433" s="9"/>
-      <c r="E433" s="9"/>
+      <c r="E433" s="16" t="s">
+        <v>541</v>
+      </c>
       <c r="F433" s="9"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E434" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D434" s="6"/>
+      <c r="E434" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F434" s="9"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="9"/>
+      <c r="B435" s="9"/>
+      <c r="C435" s="9"/>
+      <c r="D435" s="9"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="9"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E436" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F434" s="8" t="s">
+      <c r="F436" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D435" s="6" t="s">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E435" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="F435" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D436" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E436" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="F436" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D437" s="6"/>
-      <c r="E437" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F437" s="9"/>
+      <c r="E437" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="8" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D438" s="6"/>
-      <c r="E438" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F438" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E438" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="9"/>
-      <c r="B439" s="9"/>
-      <c r="C439" s="9"/>
-      <c r="D439" s="9"/>
-      <c r="E439" s="9"/>
-      <c r="F439" s="9"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F439" s="7"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E440" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F440" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D440" s="6"/>
+      <c r="E440" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F440" s="9"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D441" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E441" s="6" t="s">
-        <v>542</v>
+        <v>429</v>
+      </c>
+      <c r="D441" s="6"/>
+      <c r="E441" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="F441" s="9"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B442" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F442" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="9"/>
+      <c r="B442" s="9"/>
+      <c r="C442" s="9"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="9"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="8" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D443" s="6"/>
-      <c r="E443" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F443" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F443" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="8" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D444" s="6"/>
-      <c r="E444" s="14" t="s">
-        <v>485</v>
+        <v>8</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E444" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="F444" s="9"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="9"/>
-      <c r="B445" s="9"/>
-      <c r="C445" s="9"/>
-      <c r="D445" s="9"/>
-      <c r="E445" s="9"/>
+      <c r="A445" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E445" s="6" t="s">
+        <v>551</v>
+      </c>
       <c r="F445" s="9"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D446" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D446" s="6"/>
       <c r="E446" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F446" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="F446" s="9"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D447" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E447" s="6" t="s">
-        <v>546</v>
+        <v>429</v>
+      </c>
+      <c r="D447" s="6"/>
+      <c r="E447" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="F447" s="9"/>
     </row>
-    <row r="448" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D448" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E448" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F448" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="9"/>
+      <c r="B448" s="9"/>
+      <c r="C448" s="9"/>
+      <c r="D448" s="9"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="9"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="8" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D449" s="6"/>
-      <c r="E449" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="F449" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F449" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="8" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D450" s="6"/>
-      <c r="E450" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F450" s="9"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="9"/>
-      <c r="B451" s="9"/>
-      <c r="C451" s="9"/>
-      <c r="D451" s="9"/>
-      <c r="E451" s="9"/>
-      <c r="F451" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E450" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F451" s="7" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>419</v>
@@ -13020,18 +13164,18 @@
         <v>8</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F452" s="8" t="s">
-        <v>421</v>
+        <v>557</v>
+      </c>
+      <c r="F452" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>419</v>
@@ -13040,76 +13184,76 @@
         <v>8</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="F453" s="9"/>
-    </row>
-    <row r="454" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+      <c r="F453" s="7"/>
+    </row>
+    <row r="454" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D454" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E454" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D454" s="6"/>
+      <c r="E454" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F454" s="9"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="F454" s="10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="8" t="s">
-        <v>550</v>
-      </c>
       <c r="B455" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D455" s="6"/>
-      <c r="E455" s="7" t="s">
-        <v>549</v>
+      <c r="E455" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="F455" s="9"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D456" s="6"/>
-      <c r="E456" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="A456" s="9"/>
+      <c r="B456" s="9"/>
+      <c r="C456" s="9"/>
+      <c r="D456" s="9"/>
+      <c r="E456" s="9"/>
       <c r="F456" s="9"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="9"/>
-      <c r="B457" s="9"/>
-      <c r="C457" s="9"/>
-      <c r="D457" s="9"/>
-      <c r="E457" s="9"/>
-      <c r="F457" s="9"/>
+      <c r="A457" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E457" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F457" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>419</v>
@@ -13118,18 +13262,16 @@
         <v>8</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F458" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="F458" s="9"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>419</v>
@@ -13138,96 +13280,96 @@
         <v>8</v>
       </c>
       <c r="D459" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E459" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F459" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E459" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="F459" s="9"/>
-    </row>
-    <row r="460" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C460" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D460" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E460" s="6" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F460" s="10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="461" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="8" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C461" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="F461" s="10"/>
+    </row>
+    <row r="462" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C462" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D461" s="6"/>
-      <c r="E461" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F461" s="9"/>
-    </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C462" s="6" t="s">
+      <c r="D462" s="6"/>
+      <c r="E462" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F462" s="9"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C463" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D462" s="6"/>
-      <c r="E462" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F462" s="9"/>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="9"/>
-      <c r="B463" s="9"/>
-      <c r="C463" s="9"/>
-      <c r="D463" s="9"/>
-      <c r="E463" s="9"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="14" t="s">
+        <v>493</v>
+      </c>
       <c r="F463" s="9"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C464" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D464" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E464" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F464" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="A464" s="9"/>
+      <c r="B464" s="9"/>
+      <c r="C464" s="9"/>
+      <c r="D464" s="9"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="9"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="8" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>419</v>
@@ -13236,16 +13378,18 @@
         <v>8</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E465" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="F465" s="9"/>
+        <v>420</v>
+      </c>
+      <c r="F465" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="8" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>419</v>
@@ -13254,254 +13398,268 @@
         <v>8</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E466" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="F466" s="10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>568</v>
+      </c>
+      <c r="F466" s="9"/>
+    </row>
+    <row r="467" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="8" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D467" s="6"/>
-      <c r="E467" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F467" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E467" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="8" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D468" s="6"/>
-      <c r="E468" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F468" s="9"/>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="9"/>
-      <c r="B469" s="9"/>
-      <c r="C469" s="9"/>
-      <c r="D469" s="9"/>
-      <c r="E469" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="F468" s="10"/>
+    </row>
+    <row r="469" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D469" s="6"/>
+      <c r="E469" s="7" t="s">
+        <v>572</v>
+      </c>
       <c r="F469" s="9"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="8" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E470" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D470" s="6"/>
+      <c r="E470" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F470" s="9"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="9"/>
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
+      <c r="D471" s="9"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="9"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E472" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F470" s="8" t="s">
+      <c r="F472" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C471" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D471" s="6" t="s">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E471" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="F471" s="9"/>
-    </row>
-    <row r="472" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D472" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E472" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F472" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C473" s="6" t="s">
+      <c r="E473" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F473" s="9"/>
+    </row>
+    <row r="474" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A474" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E474" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F474" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A475" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F475" s="10"/>
+    </row>
+    <row r="476" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C476" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D473" s="6"/>
-      <c r="E473" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="F473" s="9"/>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C474" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D474" s="6"/>
-      <c r="E474" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F474" s="9"/>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="9"/>
-      <c r="B475" s="9"/>
-      <c r="C475" s="9"/>
-      <c r="D475" s="9"/>
-      <c r="E475" s="9"/>
-      <c r="F475" s="9"/>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C476" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D476" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E476" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F476" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="D476" s="6"/>
+      <c r="E476" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F476" s="9"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="8" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D477" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E477" s="6" t="s">
-        <v>569</v>
+        <v>429</v>
+      </c>
+      <c r="D477" s="6"/>
+      <c r="E477" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="F477" s="9"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D478" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E478" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="F478" s="10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="9"/>
+      <c r="B478" s="9"/>
+      <c r="C478" s="9"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="9"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="8" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D479" s="6"/>
-      <c r="E479" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="F479" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F479" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="8" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D480" s="6"/>
-      <c r="E480" s="14" t="s">
-        <v>473</v>
+        <v>8</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E480" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="F480" s="9"/>
     </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="9"/>
-      <c r="B481" s="9"/>
-      <c r="C481" s="9"/>
-      <c r="D481" s="9"/>
-      <c r="E481" s="9"/>
-      <c r="F481" s="9"/>
+    <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E481" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F481" s="10" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>419</v>
@@ -13513,93 +13671,91 @@
         <v>17</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F482" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582</v>
+      </c>
+      <c r="F482" s="10"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D483" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E483" s="6" t="s">
-        <v>574</v>
+        <v>427</v>
+      </c>
+      <c r="D483" s="6"/>
+      <c r="E483" s="7" t="s">
+        <v>583</v>
       </c>
       <c r="F483" s="9"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B484" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D484" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E484" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="F484" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C485" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D485" s="6"/>
-      <c r="E485" s="7" t="s">
-        <v>572</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D484" s="6"/>
+      <c r="E484" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F484" s="9"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="9"/>
+      <c r="B485" s="9"/>
+      <c r="C485" s="9"/>
+      <c r="D485" s="9"/>
+      <c r="E485" s="9"/>
       <c r="F485" s="9"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="8" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D486" s="6"/>
-      <c r="E486" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F486" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E486" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F486" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="9"/>
-      <c r="B487" s="9"/>
-      <c r="C487" s="9"/>
-      <c r="D487" s="9"/>
-      <c r="E487" s="9"/>
+      <c r="A487" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C487" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E487" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="F487" s="9"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="8" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>419</v>
@@ -13611,15 +13767,15 @@
         <v>17</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F488" s="8" t="s">
-        <v>421</v>
+        <v>586</v>
+      </c>
+      <c r="F488" s="10" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="8" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B489" s="6" t="s">
         <v>419</v>
@@ -13628,76 +13784,76 @@
         <v>8</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="F489" s="9"/>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+      <c r="F489" s="10"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="8" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D490" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E490" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="F490" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+      <c r="D490" s="6"/>
+      <c r="E490" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F490" s="9"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="8" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B491" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D491" s="6"/>
-      <c r="E491" s="7" t="s">
-        <v>572</v>
+      <c r="E491" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="F491" s="9"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C492" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D492" s="6"/>
-      <c r="E492" s="14" t="s">
-        <v>473</v>
-      </c>
+      <c r="A492" s="9"/>
+      <c r="B492" s="9"/>
+      <c r="C492" s="9"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="9"/>
       <c r="F492" s="9"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="9"/>
-      <c r="B493" s="9"/>
-      <c r="C493" s="9"/>
-      <c r="D493" s="9"/>
-      <c r="E493" s="9"/>
-      <c r="F493" s="9"/>
+      <c r="A493" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C493" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E493" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F493" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B494" s="6" t="s">
         <v>419</v>
@@ -13706,18 +13862,16 @@
         <v>8</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F494" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590</v>
+      </c>
+      <c r="F494" s="9"/>
+    </row>
+    <row r="495" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>419</v>
@@ -13726,16 +13880,18 @@
         <v>8</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F495" s="9"/>
+        <v>591</v>
+      </c>
+      <c r="F495" s="10" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>419</v>
@@ -13747,15 +13903,13 @@
         <v>17</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="F496" s="9" t="s">
-        <v>584</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="F496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>419</v>
@@ -13765,13 +13919,13 @@
       </c>
       <c r="D497" s="6"/>
       <c r="E497" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F497" s="9"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>419</v>
@@ -13781,7 +13935,7 @@
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="14" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="F498" s="9"/>
     </row>
@@ -13795,7 +13949,7 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="8" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>419</v>
@@ -13815,7 +13969,7 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="8" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>419</v>
@@ -13827,13 +13981,13 @@
         <v>25</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="F501" s="9"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="8" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>419</v>
@@ -13845,75 +13999,73 @@
         <v>17</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="F502" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="8" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C503" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D503" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E503" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F503" s="10"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C504" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D503" s="6"/>
-      <c r="E503" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="F503" s="9"/>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="B504" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C504" s="6" t="s">
+      <c r="D504" s="6"/>
+      <c r="E504" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F504" s="9"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C505" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D504" s="6"/>
-      <c r="E504" s="14" t="s">
+      <c r="D505" s="6"/>
+      <c r="E505" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="F504" s="9"/>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="9"/>
-      <c r="B505" s="9"/>
-      <c r="C505" s="9"/>
-      <c r="D505" s="9"/>
-      <c r="E505" s="9"/>
       <c r="F505" s="9"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="B506" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C506" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D506" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E506" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F506" s="8" t="s">
-        <v>421</v>
-      </c>
+      <c r="A506" s="9"/>
+      <c r="B506" s="9"/>
+      <c r="C506" s="9"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="9"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="8" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B507" s="6" t="s">
         <v>419</v>
@@ -13922,16 +14074,18 @@
         <v>8</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="F507" s="9"/>
+        <v>420</v>
+      </c>
+      <c r="F507" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="8" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B508" s="6" t="s">
         <v>419</v>
@@ -13940,96 +14094,94 @@
         <v>8</v>
       </c>
       <c r="D508" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="F508" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>602</v>
+      </c>
+      <c r="F508" s="9"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="8" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C509" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D509" s="9"/>
-      <c r="E509" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="F509" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D509" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E509" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F509" s="10" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="8" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C510" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D510" s="6"/>
-      <c r="E510" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="F510" s="9"/>
-    </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="8"/>
-      <c r="B511" s="6"/>
-      <c r="C511" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D510" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E510" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F510" s="10"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C511" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="D511" s="6"/>
-      <c r="E511" s="6"/>
+      <c r="E511" s="7" t="s">
+        <v>600</v>
+      </c>
       <c r="F511" s="9"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="8" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D512" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E512" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F512" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D512" s="6"/>
+      <c r="E512" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F512" s="9"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="B513" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C513" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D513" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E513" s="6" t="s">
-        <v>597</v>
-      </c>
+      <c r="A513" s="9"/>
+      <c r="B513" s="9"/>
+      <c r="C513" s="9"/>
+      <c r="D513" s="9"/>
+      <c r="E513" s="9"/>
       <c r="F513" s="9"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="8" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>419</v>
@@ -14041,153 +14193,169 @@
         <v>17</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="F514" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+      <c r="F514" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="8" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C515" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D515" s="9"/>
-      <c r="E515" s="7" t="s">
-        <v>600</v>
+        <v>8</v>
+      </c>
+      <c r="D515" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E515" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="F515" s="9"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="8" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B516" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C516" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D516" s="6"/>
-      <c r="E516" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="F516" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D516" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E516" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F516" s="10" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="9"/>
-      <c r="B517" s="9"/>
-      <c r="C517" s="9"/>
-      <c r="D517" s="9"/>
-      <c r="E517" s="9"/>
-      <c r="F517" s="9"/>
-    </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C517" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E517" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F517" s="10"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="8" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B518" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D518" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E518" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F518" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="D518" s="6"/>
+      <c r="E518" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F518" s="9"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="8" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B519" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D519" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E519" s="6" t="s">
-        <v>602</v>
+        <v>429</v>
+      </c>
+      <c r="D519" s="6"/>
+      <c r="E519" s="14" t="s">
+        <v>479</v>
       </c>
       <c r="F519" s="9"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="B520" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C520" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D520" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E520" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="F520" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="9"/>
+      <c r="B520" s="9"/>
+      <c r="C520" s="9"/>
+      <c r="D520" s="9"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="9"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="8" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B521" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C521" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D521" s="9"/>
-      <c r="E521" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="F521" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D521" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E521" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F521" s="8" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="8" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B522" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C522" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D522" s="6"/>
-      <c r="E522" s="14" t="s">
-        <v>438</v>
+        <v>8</v>
+      </c>
+      <c r="D522" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E522" s="6" t="s">
+        <v>612</v>
       </c>
       <c r="F522" s="9"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="9"/>
-      <c r="B523" s="9"/>
-      <c r="C523" s="9"/>
-      <c r="D523" s="9"/>
-      <c r="E523" s="9"/>
-      <c r="F523" s="9"/>
+      <c r="A523" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C523" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F523" s="9" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="8" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B524" s="6" t="s">
         <v>419</v>
@@ -14199,118 +14367,658 @@
         <v>17</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F524" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+      <c r="F524" s="9"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="8" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D525" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E525" s="6" t="s">
-        <v>607</v>
+        <v>427</v>
+      </c>
+      <c r="D525" s="6"/>
+      <c r="E525" s="7" t="s">
+        <v>616</v>
       </c>
       <c r="F525" s="9"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="8" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B526" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D526" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E526" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F526" s="10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B527" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C527" s="6" t="s">
-        <v>427</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D526" s="6"/>
+      <c r="E526" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F526" s="9"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="9"/>
+      <c r="B527" s="9"/>
+      <c r="C527" s="9"/>
       <c r="D527" s="9"/>
-      <c r="E527" s="7" t="s">
-        <v>610</v>
-      </c>
+      <c r="E527" s="9"/>
       <c r="F527" s="9"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="8" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B528" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C528" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E528" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F528" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C529" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E529" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F529" s="9"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C530" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E530" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F530" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C531" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D531" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E531" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F531" s="10"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C532" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D532" s="6"/>
+      <c r="E532" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F532" s="9"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C533" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D528" s="6"/>
-      <c r="E528" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="F528" s="9"/>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="9"/>
-      <c r="B529" s="9"/>
-      <c r="C529" s="9"/>
-      <c r="D529" s="9"/>
-      <c r="E529" s="9"/>
-      <c r="F529" s="9"/>
-    </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B530" s="5"/>
-      <c r="C530" s="5"/>
-      <c r="D530" s="5"/>
-      <c r="E530" s="5"/>
-      <c r="F530" s="5"/>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C531" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D531" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E531" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="F531" s="7" t="s">
-        <v>615</v>
+      <c r="D533" s="6"/>
+      <c r="E533" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F533" s="9"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="9"/>
+      <c r="B534" s="9"/>
+      <c r="C534" s="9"/>
+      <c r="D534" s="9"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="9"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C535" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D535" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E535" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F535" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C536" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E536" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F536" s="9"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C537" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E537" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="F537" s="10" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C538" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E538" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F538" s="10"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C539" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D539" s="9"/>
+      <c r="E539" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F539" s="9"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C540" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D540" s="6"/>
+      <c r="E540" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F540" s="9"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="8"/>
+      <c r="B541" s="6"/>
+      <c r="C541" s="6"/>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+      <c r="F541" s="9"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C542" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E542" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F542" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C543" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D543" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E543" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="F543" s="9"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C544" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D544" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E544" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F544" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C545" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D545" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E545" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F545" s="10"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D546" s="9"/>
+      <c r="E546" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F546" s="9"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C547" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D547" s="6"/>
+      <c r="E547" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F547" s="9"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="9"/>
+      <c r="B548" s="9"/>
+      <c r="C548" s="9"/>
+      <c r="D548" s="9"/>
+      <c r="E548" s="9"/>
+      <c r="F548" s="9"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C549" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D549" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E549" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F549" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C550" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D550" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E550" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F550" s="9"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C551" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D551" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E551" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F551" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D552" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E552" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F552" s="10"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C553" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D553" s="9"/>
+      <c r="E553" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F553" s="9"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D554" s="6"/>
+      <c r="E554" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F554" s="9"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="9"/>
+      <c r="B555" s="9"/>
+      <c r="C555" s="9"/>
+      <c r="D555" s="9"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="9"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E556" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F556" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E557" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="F557" s="9"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E558" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F558" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C559" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E559" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F559" s="10"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D560" s="9"/>
+      <c r="E560" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F560" s="9"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D561" s="6"/>
+      <c r="E561" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F561" s="9"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="9"/>
+      <c r="B562" s="9"/>
+      <c r="C562" s="9"/>
+      <c r="D562" s="9"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="9"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+      <c r="F563" s="5"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C564" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E564" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
